--- a/mercury/src/test/resources/testdata/manifest-upload/duplicates/good-manifest-3.xlsx
+++ b/mercury/src/test/resources/testdata/manifest-upload/duplicates/good-manifest-3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="7160" yWindow="300" windowWidth="23360" windowHeight="13820"/>
@@ -183,12 +183,6 @@
     <t>24-Apr-2012</t>
   </si>
   <si>
-    <t>T/N</t>
-  </si>
-  <si>
-    <t>Sample ID</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -262,6 +256,12 @@
   </si>
   <si>
     <t>03101778110ZZZ</t>
+  </si>
+  <si>
+    <t>Specimen_Number</t>
+  </si>
+  <si>
+    <t>SAMPLE_TYPE</t>
   </si>
 </sst>
 </file>
@@ -750,7 +750,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -764,7 +764,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -790,7 +790,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -799,18 +799,18 @@
         <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -819,18 +819,18 @@
         <v>7</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -839,18 +839,18 @@
         <v>7</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -859,18 +859,18 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
@@ -879,18 +879,18 @@
         <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -899,18 +899,18 @@
         <v>7</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
@@ -919,18 +919,18 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>21</v>
@@ -939,18 +939,18 @@
         <v>7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>23</v>
@@ -959,18 +959,18 @@
         <v>7</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>25</v>
@@ -979,18 +979,18 @@
         <v>7</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>27</v>
@@ -999,18 +999,18 @@
         <v>7</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
@@ -1019,18 +1019,18 @@
         <v>7</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>31</v>
@@ -1039,7 +1039,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1050,7 +1050,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>34</v>
@@ -1059,18 +1059,18 @@
         <v>7</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>36</v>
@@ -1079,18 +1079,18 @@
         <v>7</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>38</v>
@@ -1099,18 +1099,18 @@
         <v>7</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>40</v>
@@ -1119,18 +1119,18 @@
         <v>7</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>42</v>
@@ -1139,18 +1139,18 @@
         <v>7</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>44</v>
@@ -1159,18 +1159,18 @@
         <v>7</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>46</v>
@@ -1179,18 +1179,18 @@
         <v>7</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>48</v>
@@ -1199,18 +1199,18 @@
         <v>7</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>50</v>
@@ -1219,18 +1219,18 @@
         <v>7</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>52</v>
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/mercury/src/test/resources/testdata/manifest-upload/duplicates/good-manifest-3.xlsx
+++ b/mercury/src/test/resources/testdata/manifest-upload/duplicates/good-manifest-3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="7160" yWindow="300" windowWidth="23360" windowHeight="13820"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="82">
   <si>
     <t>Patient_ID</t>
   </si>
@@ -262,13 +262,19 @@
   </si>
   <si>
     <t>SAMPLE_TYPE</t>
+  </si>
+  <si>
+    <t>Material Type</t>
+  </si>
+  <si>
+    <t>DNA:Genomic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -292,8 +298,15 @@
       <color theme="11"/>
       <name val="MS Sans Serif"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,6 +323,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -329,7 +348,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -344,6 +363,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -747,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G1" sqref="G1:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -762,7 +784,7 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
@@ -781,8 +803,11 @@
       <c r="F1" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -801,8 +826,11 @@
       <c r="F2" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
@@ -821,8 +849,11 @@
       <c r="F3" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>58</v>
       </c>
@@ -841,8 +872,11 @@
       <c r="F4" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
@@ -861,8 +895,11 @@
       <c r="F5" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>60</v>
       </c>
@@ -881,8 +918,11 @@
       <c r="F6" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
@@ -901,8 +941,11 @@
       <c r="F7" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
@@ -921,8 +964,11 @@
       <c r="F8" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>63</v>
       </c>
@@ -941,8 +987,11 @@
       <c r="F9" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>64</v>
       </c>
@@ -961,8 +1010,11 @@
       <c r="F10" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>65</v>
       </c>
@@ -981,8 +1033,11 @@
       <c r="F11" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
@@ -1001,8 +1056,11 @@
       <c r="F12" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>67</v>
       </c>
@@ -1021,8 +1079,11 @@
       <c r="F13" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>68</v>
       </c>
@@ -1041,8 +1102,11 @@
       <c r="F14" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1061,8 +1125,11 @@
       <c r="F15" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>69</v>
       </c>
@@ -1081,8 +1148,11 @@
       <c r="F16" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>70</v>
       </c>
@@ -1101,8 +1171,11 @@
       <c r="F17" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>71</v>
       </c>
@@ -1121,8 +1194,11 @@
       <c r="F18" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>72</v>
       </c>
@@ -1141,8 +1217,11 @@
       <c r="F19" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>73</v>
       </c>
@@ -1161,8 +1240,11 @@
       <c r="F20" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
@@ -1181,8 +1263,11 @@
       <c r="F21" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>75</v>
       </c>
@@ -1201,8 +1286,11 @@
       <c r="F22" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>76</v>
       </c>
@@ -1221,8 +1309,11 @@
       <c r="F23" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>77</v>
       </c>
@@ -1240,6 +1331,9 @@
       </c>
       <c r="F24" s="5" t="s">
         <v>55</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
